--- a/config/default/forms/app/replace_user.xlsx
+++ b/config/default/forms/app/replace_user.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>type</t>
   </si>
@@ -176,10 +176,13 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Household ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area ID</t>
+    <t xml:space="preserve">Parent 1 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent 2 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent 3 ID</t>
   </si>
   <si>
     <t>calculate</t>
@@ -194,16 +197,22 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>contact_area_id</t>
+    <t>parent_1_id</t>
   </si>
   <si>
     <t>../inputs/contact/parent/_id</t>
   </si>
   <si>
-    <t>contact_facility_id</t>
+    <t>parent_2_id</t>
   </si>
   <si>
     <t>../inputs/contact/parent/parent/_id</t>
+  </si>
+  <si>
+    <t>parent_3_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/parent/parent/parent/_id</t>
   </si>
   <si>
     <t>user_phone</t>
@@ -279,16 +288,19 @@
     <t xml:space="preserve">New User</t>
   </si>
   <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>${contact_area_id}</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>${contact_facility_id}</t>
+    <t>${parent_1_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${parent_2_id} != ''</t>
+  </si>
+  <si>
+    <t>${parent_2_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${parent_3_id} != ''</t>
+  </si>
+  <si>
+    <t>${parent_3_id}</t>
   </si>
   <si>
     <t>Type</t>
@@ -453,7 +465,7 @@
     <t>phone_read_only</t>
   </si>
   <si>
-    <t>boolean(${user_phone})</t>
+    <t xml:space="preserve">${user_phone} != ''</t>
   </si>
   <si>
     <t>${user_phone}</t>
@@ -468,7 +480,7 @@
     <t>new_phone</t>
   </si>
   <si>
-    <t>not(boolean(${user_phone}))</t>
+    <t xml:space="preserve">${user_phone} = ''</t>
   </si>
   <si>
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
@@ -1264,7 +1276,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName=" " id="{5C008D89-1249-1821-A035-20B9C9B30380}"/>
+  <person displayName=" " id="{F68F2BEC-0C94-05D9-E827-15E919827533}"/>
 </personList>
 </file>
 
@@ -1680,7 +1692,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M1" personId="{5C008D89-1249-1821-A035-20B9C9B30380}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
+  <threadedComment ref="M1" personId="{F68F2BEC-0C94-05D9-E827-15E919827533}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
     <text xml:space="preserve">Comment:
 +marc@medicmobile.org just FYI i moved these "instance" columns to be after the cht::notes column so that all forms have the same columns in the same order up to AH. Personally I'd probably prefer that all forms have the same exact columns in the same order, even if not all columns are needed for that form.
 _Assigned to you_
@@ -2151,9 +2163,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2195,12 +2205,14 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2219,12 +2231,14 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2246,7 +2260,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2270,7 +2284,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2284,118 +2298,118 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="16"/>
@@ -2407,10 +2421,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2419,7 +2433,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="16"/>
@@ -2428,42 +2442,26 @@
       <c r="N27" s="15"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="1"/>
@@ -2471,23 +2469,23 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="1"/>
@@ -2495,233 +2493,251 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" ht="15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" ht="15">
-      <c r="A32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" s="19"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+    <row r="35" ht="15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" ht="15">
       <c r="A36" s="17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="18"/>
       <c r="I36" s="19"/>
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="M36" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="N36" s="19"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" ht="15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-      <c r="M38" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="M38" s="19"/>
       <c r="N38" s="19"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
@@ -2733,24 +2749,20 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" ht="15">
       <c r="A40" s="17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="I40" s="19"/>
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -2759,69 +2771,67 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+    <row r="41" ht="15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G42" s="19"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="I42" s="19"/>
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="M42" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="N42" s="19"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D43" s="19"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="G43" s="19"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -2835,18 +2845,22 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D44" s="19"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
+      <c r="I44" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
@@ -2857,22 +2871,24 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="F45" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="G45" s="19"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="I45" s="19"/>
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
@@ -2883,22 +2899,22 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>72</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -2909,27 +2925,23 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="E47" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="18" t="s">
-        <v>86</v>
-      </c>
+      <c r="J47" s="18"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
@@ -2939,21 +2951,21 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
@@ -2965,10 +2977,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
@@ -2976,9 +2988,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="I49" s="19"/>
       <c r="J49" s="18"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
@@ -2989,16 +2999,14 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>16</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C50" s="18"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="18"/>
@@ -3013,31 +3021,19 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>97</v>
-      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="18" t="s">
-        <v>98</v>
-      </c>
+      <c r="J51" s="18"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
@@ -3047,22 +3043,22 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -3073,27 +3069,21 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>101</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>106</v>
-      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="19"/>
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
@@ -3105,27 +3095,27 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D54" s="19"/>
-      <c r="E54" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="I54" s="19"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
@@ -3135,22 +3125,22 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="J55" s="18"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
@@ -3161,10 +3151,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="19"/>
@@ -3173,7 +3163,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="19"/>
@@ -3185,20 +3175,20 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="I57" s="19"/>
       <c r="J57" s="18"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
@@ -3209,21 +3199,31 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J58" s="18"/>
+      <c r="G58" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="19"/>
+      <c r="J58" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
@@ -3233,20 +3233,22 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="I59" s="19"/>
       <c r="J59" s="18"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
@@ -3257,20 +3259,28 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="G60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I60" s="19"/>
       <c r="J60" s="18"/>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
@@ -3281,21 +3291,25 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="18"/>
+      <c r="G61" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="I61" s="19"/>
       <c r="J61" s="18"/>
       <c r="K61" s="19"/>
@@ -3307,15 +3321,19 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="F62" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="G62" s="19"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -3329,24 +3347,20 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>72</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
+      <c r="I63" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -3357,31 +3371,23 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C64" s="18"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J64" s="18"/>
       <c r="K64" s="19"/>
-      <c r="L64" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="L64" s="19"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
       <c r="O64" s="1"/>
@@ -3389,28 +3395,20 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
@@ -3421,21 +3419,19 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="19" t="s">
-        <v>138</v>
+      <c r="I66" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
@@ -3447,24 +3443,20 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19"/>
@@ -3472,81 +3464,41 @@
       <c r="N67" s="19"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19" t="s">
-        <v>142</v>
-      </c>
+      <c r="E68" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="I68" s="19"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="L68" s="19"/>
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C69" s="18"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -3560,37 +3512,23 @@
       <c r="N69" s="19"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="18"/>
@@ -3605,23 +3543,31 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="18"/>
       <c r="I71" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J71" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
+      <c r="L71" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
       <c r="O71" s="1"/>
@@ -3629,20 +3575,28 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="G72" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="19"/>
       <c r="J72" s="18"/>
       <c r="K72" s="19"/>
       <c r="L72" s="19"/>
@@ -3653,19 +3607,21 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="19"/>
@@ -3677,17 +3633,23 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="18"/>
+      <c r="G74" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="I74" s="19"/>
       <c r="J74" s="18"/>
       <c r="K74" s="19"/>
@@ -3696,47 +3658,87 @@
       <c r="N74" s="19"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="F75" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="G75" s="19"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J75" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
+      <c r="L75" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="M75" s="19"/>
-      <c r="N75" s="19" t="s">
-        <v>152</v>
-      </c>
+      <c r="N75" s="19"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="18"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
@@ -3744,31 +3746,55 @@
       <c r="N76" s="19"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="A77" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
@@ -3776,23 +3802,23 @@
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="18"/>
-      <c r="I78" s="18" t="s">
-        <v>46</v>
+      <c r="I78" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="J78" s="18"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="18"/>
+      <c r="N78" s="19"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
@@ -3800,18 +3826,178 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="18"/>
-      <c r="I79" s="18" t="s">
-        <v>155</v>
+      <c r="I79" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
       <c r="M79" s="19"/>
-      <c r="N79" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="N79" s="19"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J80" s="18"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J82" s="18"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J85" s="18"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J86" s="18"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3822,79 +4008,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="21" disablePrompts="0">
-        <x14:dataValidation xr:uid="{002E004D-00AB-4B20-891F-004A004500D2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0089006D-0001-4BE3-9625-004A00F4008B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D8 D10 D21:D22 D24 D31 D37:D46 D74:D75 D76:D77</xm:sqref>
+          <xm:sqref>D2:D8 D10 D24:D25 D35 D41:D53 D81:D82 D83:D84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A30028-00D9-448B-954E-00E1004600EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007000BF-001F-431C-9A34-001200B2001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A1:A2 A6:A8 A10 A21:A22 A24 A31 A37:A46 A74:A75 A76:A77</xm:sqref>
+          <xm:sqref>A1:A2 A6:A8 A10 A24:A25 A35 A41:A53 A81:A82 A83:A84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DA00AF-00BC-4A65-99A1-008E003D00CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0061001C-00E2-4CCE-B7A2-00C800E40099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A9009C-00D1-4CD7-8ABB-007500D30075}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F90082-0007-406E-8F14-002C009300F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00810065-00C2-4C91-9E5A-007500E60017}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EB0067-0040-48CD-877D-00D300CC00FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE0036-009A-4C1F-A04D-007200460008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0033007F-0009-4399-847F-0049007A00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>D69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F70017-007D-4C81-B9D5-00CE00C500D8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0020001C-0070-4B2A-B7B4-0054004700ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G63</xm:sqref>
+          <xm:sqref>G70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007500D1-00FA-4B5E-A73B-005E008D0051}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004B006A-0087-4350-8486-000500490003}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G66</xm:sqref>
+          <xm:sqref>G73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001000F2-0012-4608-9EAF-00AD004600E0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0071000C-0091-4E7E-B52B-002A003E0054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -3903,7 +4089,7 @@
           </x14:formula2>
           <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D70067-00DA-48FF-9F7E-00A300650059}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004C00D8-00FF-455F-BEC7-00800056000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -3912,25 +4098,25 @@
           </x14:formula2>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00030017-002C-4FB2-A971-00150035009F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A00091-0024-489C-8021-0008002C0047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D11:D12 D13:D20 D9</xm:sqref>
+          <xm:sqref>D11:D12 D13:D23 D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004F008D-00FD-406F-88C3-002B007500B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00710009-007C-411D-B6FE-00110096006D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A11:A12 A13:A20 A9</xm:sqref>
+          <xm:sqref>A11:A12 A13:A23 A9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A6005C-00B3-4D4D-9324-00C1003A0043}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D000A9-009F-4AC4-9C18-0093003300BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -3939,77 +4125,77 @@
           </x14:formula2>
           <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007900EF-0085-49DA-8A5E-001E00000018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007000A1-004D-4D29-9C28-0075002900F5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D79</xm:sqref>
+          <xm:sqref>D86</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EA0070-00B1-4231-969E-0099000400BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003B00B5-0072-49CD-831C-00E100A90079}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A79</xm:sqref>
+          <xm:sqref>A86</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC00E5-0090-4399-AD73-0002009C0026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00FD0097-0001-4143-9261-00F800C70008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007200BD-0085-415A-AE8F-002800A600CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BF00C9-00DF-46C9-A933-0035002A0034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A32</xm:sqref>
+          <xm:sqref>A36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001C00D8-007A-4961-9CD2-008A00DC0085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000400A1-00B4-4B8B-B5D8-0013003E0008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D78</xm:sqref>
+          <xm:sqref>D85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0049009A-00F9-4622-8E71-00890071007E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00FC0066-00CF-49F4-9043-00190082005D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A78</xm:sqref>
+          <xm:sqref>A85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F7000B-00C4-4D2C-96C1-00DF009C0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{009400D6-00B9-4760-8E55-0022005E0096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D23</xm:sqref>
+          <xm:sqref>D26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003D0037-00CC-49B8-AE5D-000E0033006B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F3006B-0056-49EA-9891-008D000B00E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A23</xm:sqref>
+          <xm:sqref>A26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4039,7 +4225,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -4065,13 +4251,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -4113,13 +4299,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -4140,13 +4326,13 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -4166,13 +4352,13 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4192,13 +4378,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -4218,13 +4404,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -4244,13 +4430,13 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -4290,13 +4476,13 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -4316,13 +4502,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6178,25 +6364,25 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6220,23 +6406,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-01 14-09</v>
+        <v xml:space="preserve">2022-09-28 16-44</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6267,7 +6453,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6276,22 +6462,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -6310,13 +6496,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -6341,13 +6527,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -6397,13 +6583,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6428,13 +6614,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6459,13 +6645,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6490,13 +6676,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6521,13 +6707,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -6577,13 +6763,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -6608,13 +6794,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -6639,13 +6825,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -6670,13 +6856,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -6701,13 +6887,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -6732,13 +6918,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -6788,13 +6974,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -6819,13 +7005,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -6850,13 +7036,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -6881,13 +7067,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -6912,13 +7098,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -6943,13 +7129,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -6999,13 +7185,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -7030,13 +7216,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -7061,13 +7247,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7092,13 +7278,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -7123,13 +7309,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -7179,13 +7365,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -7210,13 +7396,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -7266,121 +7452,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -7391,26 +7577,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -7421,13 +7607,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -7452,13 +7638,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -7484,226 +7670,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B52" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B73" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/replace_user.xlsx
+++ b/config/default/forms/app/replace_user.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>type</t>
   </si>
@@ -531,10 +531,7 @@
     <t>/replace_user</t>
   </si>
   <si>
-    <t>original_contact_uuid</t>
-  </si>
-  <si>
-    <t>new_contact_uuid</t>
+    <t>replacement_contact_id</t>
   </si>
   <si>
     <t>${new_contact}</t>
@@ -1276,7 +1273,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName=" " id="{F68F2BEC-0C94-05D9-E827-15E919827533}"/>
+  <person displayName=" " id="{22E6871B-7AE3-8F3D-D05D-823DAFC52E6F}"/>
 </personList>
 </file>
 
@@ -1692,7 +1689,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M1" personId="{F68F2BEC-0C94-05D9-E827-15E919827533}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
+  <threadedComment ref="M1" personId="{22E6871B-7AE3-8F3D-D05D-823DAFC52E6F}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
     <text xml:space="preserve">Comment:
 +marc@medicmobile.org just FYI i moved these "instance" columns to be after the cht::notes column so that all forms have the same columns in the same order up to AH. Personally I'd probably prefer that all forms have the same exact columns in the same order, even if not all columns are needed for that form.
 _Assigned to you_
@@ -3963,41 +3960,17 @@
       <c r="G85" s="19"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
-      <c r="N85" s="18"/>
+      <c r="N85" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="J86" s="18"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -4007,8 +3980,8 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="21" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0089006D-0001-4BE3-9625-004A00F4008B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19" disablePrompts="0">
+        <x14:dataValidation xr:uid="{009200B1-00F8-4241-8AE5-00B2001300EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4017,7 +3990,7 @@
           </x14:formula2>
           <xm:sqref>D2:D8 D10 D24:D25 D35 D41:D53 D81:D82 D83:D84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007000BF-001F-431C-9A34-001200B2001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00ED0022-00DA-40CA-9BC8-001A00DD0087}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4026,7 +3999,7 @@
           </x14:formula2>
           <xm:sqref>A1:A2 A6:A8 A10 A24:A25 A35 A41:A53 A81:A82 A83:A84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0061001C-00E2-4CCE-B7A2-00C800E40099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007B00A4-0086-4067-A376-002800580025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4035,7 +4008,7 @@
           </x14:formula2>
           <xm:sqref>D54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F90082-0007-406E-8F14-002C009300F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CD00CD-00CB-41DF-9B9F-009900CA0026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4044,7 +4017,7 @@
           </x14:formula2>
           <xm:sqref>D57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EB0067-0040-48CD-877D-00D300CC00FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00FE00B3-00CA-4377-9958-0018007F00DF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4053,7 +4026,7 @@
           </x14:formula2>
           <xm:sqref>D59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0033007F-0009-4399-847F-0049007A00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CD005F-00CF-4BA7-9285-00AD00CD00A7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4062,7 +4035,7 @@
           </x14:formula2>
           <xm:sqref>D69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0020001C-0070-4B2A-B7B4-0054004700ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0034000A-009F-450E-8DC7-00FB00870027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4071,7 +4044,7 @@
           </x14:formula2>
           <xm:sqref>G70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004B006A-0087-4350-8486-000500490003}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004D0015-0080-486E-A727-00B300A30069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4080,7 +4053,7 @@
           </x14:formula2>
           <xm:sqref>G73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0071000C-0091-4E7E-B52B-002A003E0054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{009F0075-0021-4AF8-8B71-006E002E00FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4089,7 +4062,7 @@
           </x14:formula2>
           <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004C00D8-00FF-455F-BEC7-00800056000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00190062-0070-41F2-B39B-0011002200EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4098,7 +4071,7 @@
           </x14:formula2>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A00091-0024-489C-8021-0008002C0047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0065003A-00B2-4CFC-90B3-00A8005D00F8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4107,7 +4080,7 @@
           </x14:formula2>
           <xm:sqref>D11:D12 D13:D23 D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00710009-007C-411D-B6FE-00110096006D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006D0011-00C3-426D-8C57-00AD00ED0055}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4116,7 +4089,7 @@
           </x14:formula2>
           <xm:sqref>A11:A12 A13:A23 A9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D000A9-009F-4AC4-9C18-0093003300BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008E0088-0059-4CA0-AD0B-00E4007F00F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4125,25 +4098,25 @@
           </x14:formula2>
           <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007000A1-004D-4D29-9C28-0075002900F5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00020087-0086-480A-85A7-0023009A007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D86</xm:sqref>
+          <xm:sqref>D85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003B00B5-0072-49CD-831C-00E100A90079}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00360045-0043-47E1-A50B-0008002F00E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A86</xm:sqref>
+          <xm:sqref>A85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FD0097-0001-4143-9261-00F800C70008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A7000B-000B-45B6-BA5C-00FA00F30030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4152,7 +4125,7 @@
           </x14:formula2>
           <xm:sqref>D36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BF00C9-00DF-46C9-A933-0035002A0034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C400B8-0018-4C48-AED3-009000EF008A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4161,25 +4134,7 @@
           </x14:formula2>
           <xm:sqref>A36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000400A1-00B4-4B8B-B5D8-0013003E0008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D85</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FC0066-00CF-49F4-9043-00190082005D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A85</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009400D6-00B9-4760-8E55-0022005E0096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004500BF-00BA-4461-B741-003200DB00B2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4188,7 +4143,7 @@
           </x14:formula2>
           <xm:sqref>D26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F3006B-0056-49EA-9891-008D000B00E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003B0001-006A-460B-A0F3-002500C800E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4225,7 +4180,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -4251,13 +4206,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -4299,13 +4254,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -4326,13 +4281,13 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -4352,13 +4307,13 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4378,13 +4333,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -4404,13 +4359,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -4430,13 +4385,13 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -4476,13 +4431,13 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="C11" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -4502,13 +4457,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6364,25 +6319,25 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6406,23 +6361,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-28 16-44</v>
+        <v xml:space="preserve">2022-09-28 16-51</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6408,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6462,22 +6417,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -6496,13 +6451,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>202</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -6527,13 +6482,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>203</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>204</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -6583,13 +6538,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>206</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>207</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6614,13 +6569,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>208</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>209</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6645,13 +6600,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>210</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>211</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6676,13 +6631,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6707,13 +6662,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>214</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>215</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -6763,13 +6718,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>217</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>218</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -6794,13 +6749,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>219</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>220</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -6825,13 +6780,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>221</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>222</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -6856,13 +6811,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>223</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>224</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -6887,13 +6842,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>225</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>226</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -6918,13 +6873,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>227</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>228</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -6974,13 +6929,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>217</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>218</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -7005,13 +6960,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>219</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>220</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -7036,13 +6991,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>221</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>222</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -7067,13 +7022,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>223</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>224</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -7098,13 +7053,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>227</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>228</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -7129,13 +7084,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="C23" s="34" t="s">
         <v>230</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>231</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -7185,13 +7140,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="C25" s="34" t="s">
         <v>233</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>234</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -7216,13 +7171,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>235</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>236</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -7247,13 +7202,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>238</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7278,13 +7233,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>239</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>240</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -7309,13 +7264,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>175</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>176</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -7365,13 +7320,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>242</v>
-      </c>
       <c r="C31" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -7396,13 +7351,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -7452,121 +7407,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
         <v>175</v>
-      </c>
-      <c r="C43" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -7577,26 +7532,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -7607,13 +7562,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="C48" s="35" t="s">
         <v>258</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>259</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -7638,13 +7593,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="35" t="s">
         <v>260</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>261</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -7670,226 +7625,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" t="s">
         <v>262</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>263</v>
-      </c>
-      <c r="C51" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" t="s">
         <v>265</v>
-      </c>
-      <c r="C52" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" t="s">
         <v>267</v>
-      </c>
-      <c r="C53" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" t="s">
         <v>269</v>
-      </c>
-      <c r="C54" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" t="s">
         <v>271</v>
-      </c>
-      <c r="C55" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
         <v>175</v>
-      </c>
-      <c r="C56" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="C58" s="35" t="s">
         <v>274</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B59" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>276</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B60" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>278</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B61" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>175</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="C63" s="35" t="s">
         <v>281</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B64" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>283</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B65" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>285</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B66" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>287</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B67" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>289</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" t="s">
         <v>291</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>292</v>
-      </c>
-      <c r="C69" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" t="s">
         <v>294</v>
-      </c>
-      <c r="C70" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
+        <v>295</v>
+      </c>
+      <c r="B72" t="s">
         <v>296</v>
       </c>
-      <c r="B72" t="s">
-        <v>297</v>
-      </c>
       <c r="C72" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" t="s">
         <v>298</v>
-      </c>
-      <c r="C73" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
         <v>175</v>
-      </c>
-      <c r="C74" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/replace_user.xlsx
+++ b/config/default/forms/app/replace_user.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>type</t>
   </si>
@@ -535,6 +535,27 @@
   </si>
   <si>
     <t>${new_contact}</t>
+  </si>
+  <si>
+    <t>new_contact_name</t>
+  </si>
+  <si>
+    <t>../new_contact/name</t>
+  </si>
+  <si>
+    <t>new_contact_phone</t>
+  </si>
+  <si>
+    <t>../new_contact/phone</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submitting this form will cause the current user to be *automatically logged after the next sync.*
+This could happen immediately if you are currently connected to the internet.
+After the current user is logged out, a SMS message will be sent to **${new_contact_phone}** containing a login link. Open that link to login as **${new_contact_name}**.
+Please contact your administrator if you do not receive a login link.</t>
   </si>
   <si>
     <t>list_name</t>
@@ -1273,7 +1294,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName=" " id="{22E6871B-7AE3-8F3D-D05D-823DAFC52E6F}"/>
+  <person displayName=" " id="{7371A0CD-B85C-02A2-F92F-C7F4F045717A}"/>
 </personList>
 </file>
 
@@ -1689,7 +1710,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M1" personId="{22E6871B-7AE3-8F3D-D05D-823DAFC52E6F}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
+  <threadedComment ref="M1" personId="{7371A0CD-B85C-02A2-F92F-C7F4F045717A}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
     <text xml:space="preserve">Comment:
 +marc@medicmobile.org just FYI i moved these "instance" columns to be after the cht::notes column so that all forms have the same columns in the same order up to AH. Personally I'd probably prefer that all forms have the same exact columns in the same order, even if not all columns are needed for that form.
 _Assigned to you_
@@ -3929,20 +3950,28 @@
       <c r="P83" s="1"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="A84" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J84" s="18"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
     </row>
@@ -3951,7 +3980,7 @@
         <v>44</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
@@ -3960,18 +3989,267 @@
       <c r="G85" s="19"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
-      <c r="N85" s="18" t="s">
-        <v>158</v>
-      </c>
+      <c r="N85" s="18"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J86" s="18"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N88" s="19"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3980,26 +4258,26 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="19" disablePrompts="0">
-        <x14:dataValidation xr:uid="{009200B1-00F8-4241-8AE5-00B2001300EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="21" disablePrompts="0">
+        <x14:dataValidation xr:uid="{0092009C-005C-4694-9F2C-00F6002300AC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D8 D10 D24:D25 D35 D41:D53 D81:D82 D83:D84</xm:sqref>
+          <xm:sqref>D2:D8 D10 D24:D25 D35 D41:D53 D81:D82 D83 D87</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00ED0022-00DA-40CA-9BC8-001A00DD0087}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000E009D-0009-41C4-B9A8-0088004700ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A1:A2 A6:A8 A10 A24:A25 A35 A41:A53 A81:A82 A83:A84</xm:sqref>
+          <xm:sqref>A1:A2 A6:A8 A10 A24:A25 A35 A41:A53 A81:A82 A83 A87</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007B00A4-0086-4067-A376-002800580025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BE007E-0010-467F-82DF-0019009700B5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4008,7 +4286,7 @@
           </x14:formula2>
           <xm:sqref>D54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CD00CD-00CB-41DF-9B9F-009900CA0026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008F00FA-00D9-41E3-9764-00EA004D00BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4017,7 +4295,7 @@
           </x14:formula2>
           <xm:sqref>D57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FE00B3-00CA-4377-9958-0018007F00DF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00390024-00E4-4D4C-9D29-004800F000FD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4026,7 +4304,7 @@
           </x14:formula2>
           <xm:sqref>D59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CD005F-00CF-4BA7-9285-00AD00CD00A7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006B00FE-00EE-43B6-A20D-005100AC002B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4035,7 +4313,7 @@
           </x14:formula2>
           <xm:sqref>D69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0034000A-009F-450E-8DC7-00FB00870027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00E700C3-000E-4328-9495-009000180085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4044,7 +4322,7 @@
           </x14:formula2>
           <xm:sqref>G70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004D0015-0080-486E-A727-00B300A30069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008300CE-0080-4886-8A07-008600AD005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4053,7 +4331,7 @@
           </x14:formula2>
           <xm:sqref>G73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009F0075-0021-4AF8-8B71-006E002E00FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002600F5-0039-4DFA-B8EF-001500160070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4062,7 +4340,7 @@
           </x14:formula2>
           <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00190062-0070-41F2-B39B-0011002200EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BA0006-0014-4034-9F12-0016004600E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4071,7 +4349,7 @@
           </x14:formula2>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0065003A-00B2-4CFC-90B3-00A8005D00F8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0000003B-0081-4AA5-A0ED-00BE0096002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4080,7 +4358,7 @@
           </x14:formula2>
           <xm:sqref>D11:D12 D13:D23 D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006D0011-00C3-426D-8C57-00AD00ED0055}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B10038-000E-4041-8AC5-003F00C1002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4089,7 +4367,7 @@
           </x14:formula2>
           <xm:sqref>A11:A12 A13:A23 A9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008E0088-0059-4CA0-AD0B-00E4007F00F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006C0045-0063-4886-A5E8-006D004D0024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4098,25 +4376,25 @@
           </x14:formula2>
           <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00020087-0086-480A-85A7-0023009A007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{009C0098-000E-456F-9988-0007005B00A9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D85</xm:sqref>
+          <xm:sqref>D84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00360045-0043-47E1-A50B-0008002F00E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0006004A-002C-45D8-84A6-00F0005600A4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A85</xm:sqref>
+          <xm:sqref>A84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A7000B-000B-45B6-BA5C-00FA00F30030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BC00E0-00F4-4397-BF6E-00BB008900ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4125,7 +4403,7 @@
           </x14:formula2>
           <xm:sqref>D36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C400B8-0018-4C48-AED3-009000EF008A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005A0034-0020-45B1-B3A6-00DB004E0041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4134,7 +4412,7 @@
           </x14:formula2>
           <xm:sqref>A36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004500BF-00BA-4461-B741-003200DB00B2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EE0086-00D0-4149-98B8-0038003B007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4143,7 +4421,7 @@
           </x14:formula2>
           <xm:sqref>D26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003B0001-006A-460B-A0F3-002500C800E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00900005-0081-4FA3-8A8C-003700770027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4151,6 +4429,24 @@
             <xm:f>0</xm:f>
           </x14:formula2>
           <xm:sqref>A26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00F6005E-00A0-4DB5-993C-00BF00C1000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"yes,no"</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D88</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00D400F9-00F2-4559-84E2-00BE003900EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+          <x14:formula1>
+            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>A88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4180,7 +4476,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -4206,13 +4502,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -4254,13 +4550,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -4281,13 +4577,13 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -4307,13 +4603,13 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4333,13 +4629,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -4359,13 +4655,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -4385,13 +4681,13 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -4431,13 +4727,13 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -4457,13 +4753,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6319,25 +6615,25 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6361,23 +6657,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-28 16-51</v>
+        <v xml:space="preserve">2022-09-28 21-40</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6408,7 +6704,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6417,22 +6713,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -6451,13 +6747,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -6482,13 +6778,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -6538,13 +6834,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6569,13 +6865,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6600,13 +6896,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6631,13 +6927,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6662,13 +6958,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -6718,13 +7014,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -6749,13 +7045,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -6780,13 +7076,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -6811,13 +7107,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -6842,13 +7138,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -6873,13 +7169,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -6929,13 +7225,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -6960,13 +7256,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -6991,13 +7287,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -7022,13 +7318,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>222</v>
-      </c>
       <c r="C21" s="34" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -7053,13 +7349,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -7084,13 +7380,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -7140,13 +7436,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -7171,13 +7467,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -7202,13 +7498,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7233,13 +7529,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -7264,13 +7560,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -7320,13 +7616,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -7351,13 +7647,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -7407,121 +7703,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -7532,26 +7828,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -7562,13 +7858,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -7593,13 +7889,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -7625,226 +7921,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="35" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="35" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="35" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/replace_user.xlsx
+++ b/config/default/forms/app/replace_user.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>type</t>
   </si>
@@ -176,10 +176,13 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Household ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area ID</t>
+    <t xml:space="preserve">Parent 1 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent 2 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent 3 ID</t>
   </si>
   <si>
     <t>calculate</t>
@@ -194,16 +197,22 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>contact_area_id</t>
+    <t>parent_1_id</t>
   </si>
   <si>
     <t>../inputs/contact/parent/_id</t>
   </si>
   <si>
-    <t>contact_facility_id</t>
+    <t>parent_2_id</t>
   </si>
   <si>
     <t>../inputs/contact/parent/parent/_id</t>
+  </si>
+  <si>
+    <t>parent_3_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/parent/parent/parent/_id</t>
   </si>
   <si>
     <t>user_phone</t>
@@ -279,16 +288,19 @@
     <t xml:space="preserve">New User</t>
   </si>
   <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>${contact_area_id}</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>${contact_facility_id}</t>
+    <t>${parent_1_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${parent_2_id} != ''</t>
+  </si>
+  <si>
+    <t>${parent_2_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${parent_3_id} != ''</t>
+  </si>
+  <si>
+    <t>${parent_3_id}</t>
   </si>
   <si>
     <t>Type</t>
@@ -453,7 +465,7 @@
     <t>phone_read_only</t>
   </si>
   <si>
-    <t>boolean(${user_phone})</t>
+    <t xml:space="preserve">${user_phone} != ''</t>
   </si>
   <si>
     <t>${user_phone}</t>
@@ -468,7 +480,7 @@
     <t>new_phone</t>
   </si>
   <si>
-    <t>not(boolean(${user_phone}))</t>
+    <t xml:space="preserve">${user_phone} = ''</t>
   </si>
   <si>
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
@@ -519,13 +531,31 @@
     <t>/replace_user</t>
   </si>
   <si>
-    <t>original_contact_uuid</t>
-  </si>
-  <si>
-    <t>new_contact_uuid</t>
+    <t>replacement_contact_id</t>
   </si>
   <si>
     <t>${new_contact}</t>
+  </si>
+  <si>
+    <t>new_contact_name</t>
+  </si>
+  <si>
+    <t>../new_contact/name</t>
+  </si>
+  <si>
+    <t>new_contact_phone</t>
+  </si>
+  <si>
+    <t>../new_contact/phone</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submitting this form will cause the current user to be *automatically logged after the next sync.*
+This could happen immediately if you are currently connected to the internet.
+After the current user is logged out, a SMS message will be sent to **${new_contact_phone}** containing a login link. Open that link to login as **${new_contact_name}**.
+Please contact your administrator if you do not receive a login link.</t>
   </si>
   <si>
     <t>list_name</t>
@@ -1264,7 +1294,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName=" " id="{5C008D89-1249-1821-A035-20B9C9B30380}"/>
+  <person displayName=" " id="{7371A0CD-B85C-02A2-F92F-C7F4F045717A}"/>
 </personList>
 </file>
 
@@ -1680,7 +1710,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M1" personId="{5C008D89-1249-1821-A035-20B9C9B30380}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
+  <threadedComment ref="M1" personId="{7371A0CD-B85C-02A2-F92F-C7F4F045717A}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
     <text xml:space="preserve">Comment:
 +marc@medicmobile.org just FYI i moved these "instance" columns to be after the cht::notes column so that all forms have the same columns in the same order up to AH. Personally I'd probably prefer that all forms have the same exact columns in the same order, even if not all columns are needed for that form.
 _Assigned to you_
@@ -2151,9 +2181,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2195,12 +2223,14 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2219,12 +2249,14 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2246,7 +2278,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2270,7 +2302,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2284,118 +2316,118 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="16"/>
@@ -2407,10 +2439,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2419,7 +2451,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="16"/>
@@ -2428,42 +2460,26 @@
       <c r="N27" s="15"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="1"/>
@@ -2471,23 +2487,23 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="1"/>
@@ -2495,233 +2511,251 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" ht="15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-    </row>
-    <row r="32" ht="15">
-      <c r="A32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" s="19"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+    <row r="35" ht="15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" ht="15">
       <c r="A36" s="17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="18"/>
       <c r="I36" s="19"/>
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="M36" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="N36" s="19"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" ht="15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-      <c r="M38" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="M38" s="19"/>
       <c r="N38" s="19"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
@@ -2733,24 +2767,20 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" ht="15">
       <c r="A40" s="17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>75</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="I40" s="19"/>
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -2759,69 +2789,67 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+    <row r="41" ht="15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G42" s="19"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="I42" s="19"/>
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="M42" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="N42" s="19"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D43" s="19"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="G43" s="19"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -2835,18 +2863,22 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="D44" s="19"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
+      <c r="I44" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
@@ -2857,22 +2889,24 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="F45" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="G45" s="19"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="I45" s="19"/>
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
@@ -2883,22 +2917,22 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>72</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -2909,27 +2943,23 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="E47" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="18" t="s">
-        <v>86</v>
-      </c>
+      <c r="J47" s="18"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
@@ -2939,21 +2969,21 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
@@ -2965,10 +2995,10 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="17" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="19"/>
@@ -2976,9 +3006,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="I49" s="19"/>
       <c r="J49" s="18"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
@@ -2989,16 +3017,14 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>16</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C50" s="18"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="18"/>
@@ -3013,31 +3039,19 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="17" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>97</v>
-      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="18" t="s">
-        <v>98</v>
-      </c>
+      <c r="J51" s="18"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
@@ -3047,22 +3061,22 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -3073,27 +3087,21 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>101</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E53" s="19"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>106</v>
-      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="19"/>
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
@@ -3105,27 +3113,27 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="17" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D54" s="19"/>
-      <c r="E54" s="19" t="s">
-        <v>101</v>
-      </c>
+      <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="I54" s="19"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
@@ -3135,22 +3143,22 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="17" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="J55" s="18"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
@@ -3161,10 +3169,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="19"/>
@@ -3173,7 +3181,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="19"/>
@@ -3185,20 +3193,20 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="I57" s="19"/>
       <c r="J57" s="18"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
@@ -3209,21 +3217,31 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J58" s="18"/>
+      <c r="G58" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="19"/>
+      <c r="J58" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
@@ -3233,20 +3251,22 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="I59" s="19"/>
       <c r="J59" s="18"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
@@ -3257,20 +3277,28 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="G60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I60" s="19"/>
       <c r="J60" s="18"/>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
@@ -3281,21 +3309,25 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="18"/>
+      <c r="G61" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="I61" s="19"/>
       <c r="J61" s="18"/>
       <c r="K61" s="19"/>
@@ -3307,15 +3339,19 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="18"/>
+        <v>116</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="F62" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="G62" s="19"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -3329,24 +3365,20 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>72</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="19" t="s">
-        <v>113</v>
-      </c>
+      <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
+      <c r="I63" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
@@ -3357,31 +3389,23 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C64" s="18"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J64" s="18"/>
       <c r="K64" s="19"/>
-      <c r="L64" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="L64" s="19"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
       <c r="O64" s="1"/>
@@ -3389,28 +3413,20 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
@@ -3421,21 +3437,19 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C66" s="18"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="18"/>
-      <c r="I66" s="19" t="s">
-        <v>138</v>
+      <c r="I66" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
@@ -3447,24 +3461,20 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C67" s="18"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19"/>
@@ -3472,81 +3482,41 @@
       <c r="N67" s="19"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19" t="s">
-        <v>142</v>
-      </c>
+      <c r="E68" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="18"/>
-      <c r="I68" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="I68" s="19"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="L68" s="19"/>
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C69" s="18"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -3560,37 +3530,23 @@
       <c r="N69" s="19"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
-      <c r="AF69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="18"/>
@@ -3605,23 +3561,31 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="18"/>
       <c r="I71" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J71" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
+      <c r="L71" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
       <c r="O71" s="1"/>
@@ -3629,20 +3593,28 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="G72" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="19"/>
       <c r="J72" s="18"/>
       <c r="K72" s="19"/>
       <c r="L72" s="19"/>
@@ -3653,19 +3625,21 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="19"/>
@@ -3677,17 +3651,23 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="18"/>
+      <c r="G74" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="I74" s="19"/>
       <c r="J74" s="18"/>
       <c r="K74" s="19"/>
@@ -3696,47 +3676,87 @@
       <c r="N74" s="19"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="F75" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="G75" s="19"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J75" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
+      <c r="L75" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="M75" s="19"/>
-      <c r="N75" s="19" t="s">
-        <v>152</v>
-      </c>
+      <c r="N75" s="19"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
+      <c r="I76" s="19"/>
       <c r="J76" s="18"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
@@ -3744,31 +3764,55 @@
       <c r="N76" s="19"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="A77" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="19"/>
@@ -3776,23 +3820,23 @@
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="18"/>
-      <c r="I78" s="18" t="s">
-        <v>46</v>
+      <c r="I78" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="J78" s="18"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
-      <c r="N78" s="18"/>
+      <c r="N78" s="19"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="19"/>
@@ -3800,19 +3844,412 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="18"/>
-      <c r="I79" s="18" t="s">
-        <v>155</v>
+      <c r="I79" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
       <c r="M79" s="19"/>
-      <c r="N79" s="18" t="s">
-        <v>155</v>
-      </c>
+      <c r="N79" s="19"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J80" s="18"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J82" s="18"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J84" s="18"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J85" s="18"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J86" s="18"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N88" s="19"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3822,79 +4259,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="21" disablePrompts="0">
-        <x14:dataValidation xr:uid="{002E004D-00AB-4B20-891F-004A004500D2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0092009C-005C-4694-9F2C-00F6002300AC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D8 D10 D21:D22 D24 D31 D37:D46 D74:D75 D76:D77</xm:sqref>
+          <xm:sqref>D2:D8 D10 D24:D25 D35 D41:D53 D81:D82 D83 D87</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A30028-00D9-448B-954E-00E1004600EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000E009D-0009-41C4-B9A8-0088004700ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A1:A2 A6:A8 A10 A21:A22 A24 A31 A37:A46 A74:A75 A76:A77</xm:sqref>
+          <xm:sqref>A1:A2 A6:A8 A10 A24:A25 A35 A41:A53 A81:A82 A83 A87</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DA00AF-00BC-4A65-99A1-008E003D00CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BE007E-0010-467F-82DF-0019009700B5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D47</xm:sqref>
+          <xm:sqref>D54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A9009C-00D1-4CD7-8ABB-007500D30075}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008F00FA-00D9-41E3-9764-00EA004D00BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D50</xm:sqref>
+          <xm:sqref>D57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00810065-00C2-4C91-9E5A-007500E60017}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00390024-00E4-4D4C-9D29-004800F000FD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D52</xm:sqref>
+          <xm:sqref>D59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE0036-009A-4C1F-A04D-007200460008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006B00FE-00EE-43B6-A20D-005100AC002B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D62</xm:sqref>
+          <xm:sqref>D69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F70017-007D-4C81-B9D5-00CE00C500D8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00E700C3-000E-4328-9495-009000180085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G63</xm:sqref>
+          <xm:sqref>G70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007500D1-00FA-4B5E-A73B-005E008D0051}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008300CE-0080-4886-8A07-008600AD005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G66</xm:sqref>
+          <xm:sqref>G73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001000F2-0012-4608-9EAF-00AD004600E0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002600F5-0039-4DFA-B8EF-001500160070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -3903,7 +4340,7 @@
           </x14:formula2>
           <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D70067-00DA-48FF-9F7E-00A300650059}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BA0006-0014-4034-9F12-0016004600E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -3912,25 +4349,25 @@
           </x14:formula2>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00030017-002C-4FB2-A971-00150035009F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0000003B-0081-4AA5-A0ED-00BE0096002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D11:D12 D13:D20 D9</xm:sqref>
+          <xm:sqref>D11:D12 D13:D23 D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004F008D-00FD-406F-88C3-002B007500B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B10038-000E-4041-8AC5-003F00C1002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A11:A12 A13:A20 A9</xm:sqref>
+          <xm:sqref>A11:A12 A13:A23 A9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A6005C-00B3-4D4D-9324-00C1003A0043}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006C0045-0063-4886-A5E8-006D004D0024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -3939,77 +4376,77 @@
           </x14:formula2>
           <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007900EF-0085-49DA-8A5E-001E00000018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{009C0098-000E-456F-9988-0007005B00A9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D79</xm:sqref>
+          <xm:sqref>D84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EA0070-00B1-4231-969E-0099000400BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0006004A-002C-45D8-84A6-00F0005600A4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A79</xm:sqref>
+          <xm:sqref>A84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC00E5-0090-4399-AD73-0002009C0026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BC00E0-00F4-4397-BF6E-00BB008900ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007200BD-0085-415A-AE8F-002800A600CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005A0034-0020-45B1-B3A6-00DB004E0041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A32</xm:sqref>
+          <xm:sqref>A36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001C00D8-007A-4961-9CD2-008A00DC0085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EE0086-00D0-4149-98B8-0038003B007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D78</xm:sqref>
+          <xm:sqref>D26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0049009A-00F9-4622-8E71-00890071007E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00900005-0081-4FA3-8A8C-003700770027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A78</xm:sqref>
+          <xm:sqref>A26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F7000B-00C4-4D2C-96C1-00DF009C0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F6005E-00A0-4DB5-993C-00BF00C1000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D23</xm:sqref>
+          <xm:sqref>D88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003D0037-00CC-49B8-AE5D-000E0033006B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D400F9-00F2-4559-84E2-00BE003900EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A23</xm:sqref>
+          <xm:sqref>A88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4039,7 +4476,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -4065,13 +4502,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -4113,13 +4550,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -4140,13 +4577,13 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -4166,13 +4603,13 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4192,13 +4629,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -4218,13 +4655,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -4244,13 +4681,13 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -4290,13 +4727,13 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -4316,13 +4753,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6178,25 +6615,25 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6220,23 +6657,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-01 14-09</v>
+        <v xml:space="preserve">2022-09-28 21-40</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6267,7 +6704,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6276,22 +6713,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -6310,13 +6747,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -6341,13 +6778,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -6397,13 +6834,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6428,13 +6865,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6459,13 +6896,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6490,13 +6927,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6521,13 +6958,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -6577,13 +7014,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -6608,13 +7045,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -6639,13 +7076,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -6670,13 +7107,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -6701,13 +7138,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -6732,13 +7169,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -6788,13 +7225,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -6819,13 +7256,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>225</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>216</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -6850,13 +7287,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -6881,13 +7318,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -6912,13 +7349,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -6943,13 +7380,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -6999,13 +7436,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -7030,13 +7467,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -7061,13 +7498,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7092,13 +7529,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -7123,13 +7560,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -7179,13 +7616,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -7210,13 +7647,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -7266,121 +7703,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -7391,26 +7828,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -7421,13 +7858,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="35" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -7452,13 +7889,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -7484,226 +7921,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C53" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="35" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="35" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="35" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B73" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/replace_user.xlsx
+++ b/config/default/forms/app/replace_user.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>type</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>note</t>
@@ -282,10 +279,22 @@
     <t>true()</t>
   </si>
   <si>
+    <t xml:space="preserve">. = '1234'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid code. Contact your administrator if you need access to this form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code is '1234'</t>
+  </si>
+  <si>
     <t>new_contact</t>
   </si>
   <si>
     <t xml:space="preserve">New User</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>${parent_1_id}</t>
@@ -1294,7 +1303,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName=" " id="{7371A0CD-B85C-02A2-F92F-C7F4F045717A}"/>
+  <person displayName=" " id="{0B2AC635-433A-6A0F-353D-B94AE4049DA1}"/>
 </personList>
 </file>
 
@@ -1710,7 +1719,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M1" personId="{7371A0CD-B85C-02A2-F92F-C7F4F045717A}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
+  <threadedComment ref="M1" personId="{0B2AC635-433A-6A0F-353D-B94AE4049DA1}" id="{00E10077-0033-4550-BE14-0060002F003A}" done="0">
     <text xml:space="preserve">Comment:
 +marc@medicmobile.org just FYI i moved these "instance" columns to be after the cht::notes column so that all forms have the same columns in the same order up to AH. Personally I'd probably prefer that all forms have the same exact columns in the same order, even if not all columns are needed for that form.
 _Assigned to you_
@@ -2684,27 +2693,25 @@
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="C37" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="18"/>
@@ -2719,13 +2726,13 @@
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -2746,20 +2753,26 @@
         <v>34</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
+      <c r="J39" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
@@ -2812,10 +2825,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -2829,7 +2842,7 @@
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N42" s="19"/>
       <c r="O42" s="1"/>
@@ -2877,7 +2890,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="18"/>
       <c r="I44" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
@@ -2899,7 +2912,7 @@
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>19</v>
@@ -2931,7 +2944,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="18"/>
       <c r="I46" s="19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
@@ -2953,7 +2966,7 @@
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -2983,7 +2996,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
@@ -3067,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -3075,7 +3088,7 @@
       <c r="G52" s="19"/>
       <c r="H52" s="18"/>
       <c r="I52" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
@@ -3093,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
@@ -3116,23 +3129,23 @@
         <v>34</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
@@ -3146,18 +3159,18 @@
         <v>44</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="18"/>
       <c r="I55" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J55" s="18"/>
       <c r="K55" s="19"/>
@@ -3172,7 +3185,7 @@
         <v>44</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="19"/>
@@ -3181,7 +3194,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="19"/>
@@ -3196,7 +3209,7 @@
         <v>14</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>16</v>
@@ -3217,30 +3230,30 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
@@ -3251,17 +3264,17 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -3277,26 +3290,26 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C60" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="18"/>
@@ -3309,24 +3322,24 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="18"/>
@@ -3339,10 +3352,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>16</v>
@@ -3350,7 +3363,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="18"/>
@@ -3368,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
@@ -3377,7 +3390,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
@@ -3392,7 +3405,7 @@
         <v>44</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
@@ -3401,7 +3414,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
@@ -3416,7 +3429,7 @@
         <v>44</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
@@ -3425,7 +3438,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
@@ -3440,7 +3453,7 @@
         <v>44</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
@@ -3449,7 +3462,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
@@ -3464,7 +3477,7 @@
         <v>44</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
@@ -3473,7 +3486,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="18"/>
       <c r="I67" s="19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
@@ -3485,13 +3498,13 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
@@ -3514,7 +3527,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="19"/>
@@ -3533,20 +3546,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="18"/>
@@ -3561,30 +3574,30 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="18"/>
       <c r="I71" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K71" s="19"/>
       <c r="L71" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
@@ -3593,26 +3606,26 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="18"/>
@@ -3639,7 +3652,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="19"/>
@@ -3651,22 +3664,22 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="18"/>
@@ -3695,7 +3708,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>38</v>
@@ -3706,19 +3719,19 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G75" s="19"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M75" s="19"/>
       <c r="N75" s="19"/>
@@ -3746,10 +3759,10 @@
         <v>34</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
@@ -3786,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>16</v>
@@ -3821,7 +3834,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="18"/>
       <c r="I78" s="19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J78" s="18"/>
       <c r="K78" s="19"/>
@@ -3845,7 +3858,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="18"/>
       <c r="I79" s="19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="19"/>
@@ -3869,7 +3882,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="18"/>
       <c r="I80" s="19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="19"/>
@@ -3884,7 +3897,7 @@
         <v>32</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
@@ -3906,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
@@ -3915,14 +3928,14 @@
       <c r="G82" s="19"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
       <c r="L82" s="19"/>
       <c r="M82" s="19"/>
       <c r="N82" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -3932,7 +3945,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="19"/>
@@ -3954,7 +3967,7 @@
         <v>44</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="19"/>
@@ -3963,14 +3976,14 @@
       <c r="G84" s="19"/>
       <c r="H84" s="18"/>
       <c r="I84" s="18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
       <c r="N84" s="18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -3980,7 +3993,7 @@
         <v>44</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
@@ -3989,7 +4002,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="19"/>
@@ -4004,7 +4017,7 @@
         <v>44</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
@@ -4013,7 +4026,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="18"/>
       <c r="I86" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J86" s="18"/>
       <c r="K86" s="19"/>
@@ -4046,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>16</v>
@@ -4062,27 +4075,25 @@
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
       <c r="L88" s="19"/>
-      <c r="M88" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="M88" s="19"/>
       <c r="N88" s="19"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="C89" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="18"/>
@@ -4097,13 +4108,13 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -4124,7 +4135,7 @@
         <v>32</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
@@ -4259,7 +4270,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="21" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0092009C-005C-4694-9F2C-00F6002300AC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D000D8-00EC-4519-8A0B-00ED009E00EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4268,7 +4279,7 @@
           </x14:formula2>
           <xm:sqref>D2:D8 D10 D24:D25 D35 D41:D53 D81:D82 D83 D87</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000E009D-0009-41C4-B9A8-0088004700ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00310038-00DE-4D8D-B88E-00550045006D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4277,7 +4288,7 @@
           </x14:formula2>
           <xm:sqref>A1:A2 A6:A8 A10 A24:A25 A35 A41:A53 A81:A82 A83 A87</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BE007E-0010-467F-82DF-0019009700B5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002100FC-0098-42EF-8BE3-00BB00900082}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4286,7 +4297,7 @@
           </x14:formula2>
           <xm:sqref>D54</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008F00FA-00D9-41E3-9764-00EA004D00BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005300E7-0007-4564-989B-00140049002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4295,7 +4306,7 @@
           </x14:formula2>
           <xm:sqref>D57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00390024-00E4-4D4C-9D29-004800F000FD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002D008E-0035-49C0-87CA-005D00D400A5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4304,7 +4315,7 @@
           </x14:formula2>
           <xm:sqref>D59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006B00FE-00EE-43B6-A20D-005100AC002B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00440039-0002-47C1-9242-00CA00E3007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4313,7 +4324,7 @@
           </x14:formula2>
           <xm:sqref>D69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E700C3-000E-4328-9495-009000180085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B700A3-00A6-418C-AFDC-00A900F40092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4322,7 +4333,7 @@
           </x14:formula2>
           <xm:sqref>G70</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008300CE-0080-4886-8A07-008600AD005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006400A7-0032-48BF-932B-004B00B700EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4331,7 +4342,7 @@
           </x14:formula2>
           <xm:sqref>G73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002600F5-0039-4DFA-B8EF-001500160070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B500F5-00B1-413A-B87D-002300040007}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4340,7 +4351,7 @@
           </x14:formula2>
           <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BA0006-0014-4034-9F12-0016004600E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0054009A-00F6-4BC2-B6F1-00BD00BF0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4349,7 +4360,7 @@
           </x14:formula2>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0000003B-0081-4AA5-A0ED-00BE0096002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D9002E-0079-46EA-B3A2-00D6004400EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4358,7 +4369,7 @@
           </x14:formula2>
           <xm:sqref>D11:D12 D13:D23 D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B10038-000E-4041-8AC5-003F00C1002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B20054-00D4-47AB-8393-002D00790030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4367,7 +4378,7 @@
           </x14:formula2>
           <xm:sqref>A11:A12 A13:A23 A9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006C0045-0063-4886-A5E8-006D004D0024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BD00C8-006F-4128-A4C6-007A007700D9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4376,7 +4387,7 @@
           </x14:formula2>
           <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009C0098-000E-456F-9988-0007005B00A9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00650045-00AE-4E7B-B13B-00140085002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4385,7 +4396,7 @@
           </x14:formula2>
           <xm:sqref>D84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0006004A-002C-45D8-84A6-00F0005600A4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C400B6-000A-4494-B798-00DC001B00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4394,7 +4405,7 @@
           </x14:formula2>
           <xm:sqref>A84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BC00E0-00F4-4397-BF6E-00BB008900ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{009100E1-0008-46B8-956E-00B400E30083}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4403,7 +4414,7 @@
           </x14:formula2>
           <xm:sqref>D36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005A0034-0020-45B1-B3A6-00DB004E0041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F90065-006C-4DCA-87E1-00A4005B007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4412,7 +4423,7 @@
           </x14:formula2>
           <xm:sqref>A36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE0086-00D0-4149-98B8-0038003B007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{001A00D1-002E-4927-ADAA-00E9007900F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4421,7 +4432,7 @@
           </x14:formula2>
           <xm:sqref>D26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00900005-0081-4FA3-8A8C-003700770027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003C00A2-00AC-4EB8-AFC7-00F600AE0049}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4430,7 +4441,7 @@
           </x14:formula2>
           <xm:sqref>A26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F6005E-00A0-4DB5-993C-00BF00C1000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00DD00D9-004C-4A5E-9C03-006B00560090}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4439,7 +4450,7 @@
           </x14:formula2>
           <xm:sqref>D88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D400F9-00F2-4559-84E2-00BE003900EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00DA006B-00E9-48E9-9A4D-0084007D00A8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
           </x14:formula1>
@@ -4476,7 +4487,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -4502,13 +4513,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -4550,13 +4561,13 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -4577,13 +4588,13 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -4603,13 +4614,13 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4629,13 +4640,13 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -4655,13 +4666,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -4681,13 +4692,13 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -4727,13 +4738,13 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -4753,13 +4764,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6615,25 +6626,25 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6657,23 +6668,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-28 21-40</v>
+        <v xml:space="preserve">2022-11-23 12-06</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6704,7 +6715,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6713,22 +6724,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -6747,13 +6758,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -6778,13 +6789,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -6834,13 +6845,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6865,13 +6876,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6896,13 +6907,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6927,13 +6938,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6958,13 +6969,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -7014,13 +7025,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -7045,13 +7056,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -7076,13 +7087,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -7107,13 +7118,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -7138,13 +7149,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -7169,13 +7180,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -7225,13 +7236,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -7256,13 +7267,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -7287,13 +7298,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -7318,13 +7329,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -7349,13 +7360,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -7380,13 +7391,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -7436,13 +7447,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -7467,13 +7478,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -7498,13 +7509,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7529,13 +7540,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -7560,13 +7571,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -7616,13 +7627,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -7647,13 +7658,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -7703,121 +7714,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -7828,26 +7839,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -7858,13 +7869,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="35" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -7889,13 +7900,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -7921,226 +7932,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="33" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B69" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B73" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C73" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/replace_user.xlsx
+++ b/config/default/forms/app/replace_user.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111CF523-931A-4312-8E0D-593158785503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -22,7 +39,7 @@
     <author>tc={00E10077-0033-4550-BE14-0060002F003A}</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" xr:uid="{00E10077-0033-4550-BE14-0060002F003A}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00E10077-0033-4550-BE14-0060002F003A}">
       <text>
         <r>
           <rPr>
@@ -51,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="308">
   <si>
     <t>type</t>
   </si>
@@ -95,7 +112,7 @@
     <t>instance::db-doc-ref</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -125,19 +142,19 @@
     <t>source_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Source ID</t>
+    <t>Source ID</t>
   </si>
   <si>
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">User’s Contact ID</t>
+    <t>User’s Contact ID</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility ID</t>
+    <t>Facility ID</t>
   </si>
   <si>
     <t>Username</t>
@@ -146,10 +163,10 @@
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>contact</t>
@@ -161,10 +178,10 @@
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">The user being replaced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select-contact type-person</t>
+    <t>The user being replaced</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
   </si>
   <si>
     <t>role</t>
@@ -176,13 +193,13 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent 1 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent 2 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent 3 ID</t>
+    <t>Parent 1 ID</t>
+  </si>
+  <si>
+    <t>Parent 2 ID</t>
+  </si>
+  <si>
+    <t>Parent 3 ID</t>
   </si>
   <si>
     <t>calculate</t>
@@ -191,7 +208,7 @@
     <t>patient_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Assocaite form with original contact</t>
+    <t>Assocaite form with original contact</t>
   </si>
   <si>
     <t>../inputs/contact/_id</t>
@@ -248,7 +265,7 @@
     <t>intro</t>
   </si>
   <si>
-    <t xml:space="preserve">field-list summary</t>
+    <t>field-list summary</t>
   </si>
   <si>
     <t>note</t>
@@ -257,41 +274,41 @@
     <t>warning_header</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;i class="fa fa-exclamation-triangle"&gt;&lt;/i&gt; Warning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 red</t>
+    <t>&lt;i class="fa fa-exclamation-triangle"&gt;&lt;/i&gt; Warning</t>
+  </si>
+  <si>
+    <t>h1 red</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Users should only be replaced by their supervisors. 
+    <t>Users should only be replaced by their supervisors. 
 This action can only be taken with the proper admin code.</t>
   </si>
   <si>
     <t>admin_code</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin Code</t>
+    <t>Admin Code</t>
   </si>
   <si>
     <t>true()</t>
   </si>
   <si>
-    <t xml:space="preserve">. = '1234'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid code. Contact your administrator if you need access to this form.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The code is '1234'</t>
+    <t>. = '1234'</t>
+  </si>
+  <si>
+    <t>Invalid code. Contact your administrator if you need access to this form.</t>
+  </si>
+  <si>
+    <t>The code is '1234'</t>
   </si>
   <si>
     <t>new_contact</t>
   </si>
   <si>
-    <t xml:space="preserve">New User</t>
+    <t>New User</t>
   </si>
   <si>
     <t>true</t>
@@ -300,13 +317,13 @@
     <t>${parent_1_id}</t>
   </si>
   <si>
-    <t xml:space="preserve">${parent_2_id} != ''</t>
+    <t>${parent_2_id} != ''</t>
   </si>
   <si>
     <t>${parent_2_id}</t>
   </si>
   <si>
-    <t xml:space="preserve">${parent_3_id} != ''</t>
+    <t>${parent_3_id} != ''</t>
   </si>
   <si>
     <t>${parent_3_id}</t>
@@ -318,22 +335,22 @@
     <t>"person"</t>
   </si>
   <si>
-    <t xml:space="preserve">Full name</t>
+    <t>Full name</t>
   </si>
   <si>
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string-length(.) &lt;= 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short name can not be more than 10 characters long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>string-length(.) &lt;= 10</t>
+  </si>
+  <si>
+    <t>Short name can not be more than 10 characters long.</t>
+  </si>
+  <si>
+    <t>Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -363,19 +380,19 @@
     <t>not(selected(${dob_method},'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be before today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t>Date must be before today</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>age_label</t>
   </si>
   <si>
-    <t xml:space="preserve">**Please enter date of birth**</t>
+    <t>**Please enter date of birth**</t>
   </si>
   <si>
     <t>selected(${dob_method},'approx')</t>
@@ -390,10 +407,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 130</t>
+    <t>. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -402,43 +419,40 @@
     <t>Months</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_dob_method</t>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t>select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
   </si>
   <si>
-    <t>horizontal</t>
-  </si>
-  <si>
     <t>ephemeral_months</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ${age_months} &lt; 0, format-date-time(today(),"%m") - ${age_months} + 12, format-date-time(today(),"%m") - ${age_months})</t>
+    <t>if(format-date-time(today(),"%m") - ${age_months} &lt; 0, format-date-time(today(),"%m") - ${age_months} + 12, format-date-time(today(),"%m") - ${age_months})</t>
   </si>
   <si>
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t xml:space="preserve">if(format-date-time(today(),"%m") - ${age_months} &lt; 0, format-date-time(today(),"%Y") - ${age_years} - 1, format-date-time(today(),"%Y") -${age_years})</t>
+    <t>if(format-date-time(today(),"%m") - ${age_months} &lt; 0, format-date-time(today(),"%Y") - ${age_years} - 1, format-date-time(today(),"%Y") -${age_years})</t>
   </si>
   <si>
     <t>dob_approx</t>
   </si>
   <si>
-    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t>concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">if(not(selected( ${dob_method},'approx')), 
+    <t>if(not(selected( ${dob_method},'approx')), 
 ${dob_calendar},
 ${dob_approx})</t>
   </si>
@@ -452,14 +466,14 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">Months: ${ephemeral_months}
+    <t>Months: ${ephemeral_months}
 Year: ${ephemeral_years}
 DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one male_female</t>
+    <t>select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -474,13 +488,13 @@
     <t>phone_read_only</t>
   </si>
   <si>
-    <t xml:space="preserve">${user_phone} != ''</t>
+    <t>${user_phone} != ''</t>
   </si>
   <si>
     <t>${user_phone}</t>
   </si>
   <si>
-    <t xml:space="preserve">Inherited from existing user</t>
+    <t>Inherited from existing user</t>
   </si>
   <si>
     <t>tel</t>
@@ -489,22 +503,22 @@
     <t>new_phone</t>
   </si>
   <si>
-    <t xml:space="preserve">${user_phone} = ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coalesce(${user_phone}, ${new_phone})</t>
+    <t>${user_phone} = ''</t>
+  </si>
+  <si>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
+  </si>
+  <si>
+    <t>coalesce(${user_phone}, ${new_phone})</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one roles</t>
+    <t>Alternate Phone Number</t>
+  </si>
+  <si>
+    <t>select_one roles</t>
   </si>
   <si>
     <t>minimal</t>
@@ -516,7 +530,7 @@
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
+    <t>External ID</t>
   </si>
   <si>
     <t>meta</t>
@@ -561,7 +575,7 @@
     <t>outro</t>
   </si>
   <si>
-    <t xml:space="preserve">Submitting this form will cause the current user to be *automatically logged after the next sync.*
+    <t>Submitting this form will cause the current user to be *automatically logged after the next sync.*
 This could happen immediately if you are currently connected to the internet.
 After the current user is logged out, a SMS message will be sent to **${new_contact_phone}** containing a login link. Open that link to login as **${new_contact_name}**.
 Please contact your administrator if you do not receive a login link.</t>
@@ -576,7 +590,7 @@
     <t>approx</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of birth unknown</t>
+    <t>Date of birth unknown</t>
   </si>
   <si>
     <t>roles</t>
@@ -591,7 +605,7 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
+    <t>CHW Supervisor</t>
   </si>
   <si>
     <t>nurse</t>
@@ -603,7 +617,7 @@
     <t>manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility Manager</t>
+    <t>Facility Manager</t>
   </si>
   <si>
     <t>patient</t>
@@ -654,7 +668,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Replace User</t>
+    <t>Replace User</t>
   </si>
   <si>
     <t>replace_user</t>
@@ -708,31 +722,31 @@
     <t>upto_2_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 2 Months Ago</t>
+    <t>Upto 2 Months Ago</t>
   </si>
   <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 3 Months Ago</t>
+    <t>Upto 3 Months Ago</t>
   </si>
   <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 4 Months Ago</t>
+    <t>Upto 4 Months Ago</t>
   </si>
   <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 5 And 6 Months Ago</t>
+    <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
     <t>between_7_and_8_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 7 And 8 Months Ago</t>
+    <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
     <t>trimester1_choices</t>
@@ -741,37 +755,37 @@
     <t>eat_extra_meal</t>
   </si>
   <si>
-    <t xml:space="preserve">Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Take iron and folic acid tablets</t>
+    <t>Take iron and folic acid tablets</t>
   </si>
   <si>
     <t>avoid_heavy_work</t>
   </si>
   <si>
-    <t xml:space="preserve">Avoid heavy work, rest more</t>
+    <t>Avoid heavy work, rest more</t>
   </si>
   <si>
     <t>sleep_under_bednet</t>
   </si>
   <si>
-    <t xml:space="preserve">Sleep under an insecticide treated bednet</t>
+    <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
     <t>go_for_anc_visit</t>
   </si>
   <si>
-    <t xml:space="preserve">Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
     <t>develop_birth_plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
     <t>trimester2_choices</t>
@@ -780,7 +794,7 @@
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
     <t>conditions</t>
@@ -789,7 +803,7 @@
     <t>heart_condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Heart condition</t>
+    <t>Heart condition</t>
   </si>
   <si>
     <t>asthma</t>
@@ -801,13 +815,13 @@
     <t>high_blood_pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">High blood pressure</t>
+    <t>High blood pressure</t>
   </si>
   <si>
     <t>known_diabetes</t>
   </si>
   <si>
-    <t xml:space="preserve">Known diabetes</t>
+    <t>Known diabetes</t>
   </si>
   <si>
     <t>hiv_statuses</t>
@@ -822,19 +836,19 @@
     <t>fp_methods</t>
   </si>
   <si>
-    <t xml:space="preserve">Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progesterone only pills</t>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
   </si>
   <si>
     <t>Injectibles</t>
   </si>
   <si>
-    <t xml:space="preserve">Implants (1 rod)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implants (2 rods)</t>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>IUD</t>
@@ -843,19 +857,19 @@
     <t>Condoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubal ligation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle beads</t>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
   </si>
   <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
-    <t xml:space="preserve">Wants to get pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did not want FP</t>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
   </si>
   <si>
     <t>follow_up_methods</t>
@@ -864,13 +878,13 @@
     <t>in_person</t>
   </si>
   <si>
-    <t xml:space="preserve">In person</t>
+    <t>In person</t>
   </si>
   <si>
     <t>by_phone</t>
   </si>
   <si>
-    <t xml:space="preserve">By phone</t>
+    <t>By phone</t>
   </si>
   <si>
     <t>reasons_for_missing_visit</t>
@@ -879,25 +893,25 @@
     <t>not_reminded</t>
   </si>
   <si>
-    <t xml:space="preserve">She was not reminded</t>
+    <t>She was not reminded</t>
   </si>
   <si>
     <t>travelled</t>
   </si>
   <si>
-    <t xml:space="preserve">She had travelled</t>
+    <t>She had travelled</t>
   </si>
   <si>
     <t>no_lab_results</t>
   </si>
   <si>
-    <t xml:space="preserve">No Lab results yet</t>
+    <t>No Lab results yet</t>
   </si>
   <si>
     <t>too_early</t>
   </si>
   <si>
-    <t xml:space="preserve">It is too early to start clinic</t>
+    <t>It is too early to start clinic</t>
   </si>
   <si>
     <t>relocated</t>
@@ -912,19 +926,19 @@
     <t>referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Referred the mother</t>
+    <t>Referred the mother</t>
   </si>
   <si>
     <t>key_message</t>
   </si>
   <si>
-    <t xml:space="preserve">Provided key health message</t>
+    <t>Provided key health message</t>
   </si>
   <si>
     <t>accompany</t>
   </si>
   <si>
-    <t xml:space="preserve">Accompany the mother to facility</t>
+    <t>Accompany the mother to facility</t>
   </si>
   <si>
     <t>recent_foods</t>
@@ -933,31 +947,31 @@
     <t>carbohydrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
   </si>
   <si>
     <t>protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Body building foods: Milk, eggs, meat</t>
+    <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
     <t>vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
   </si>
   <si>
     <t>fruits</t>
   </si>
   <si>
-    <t xml:space="preserve">Fruits: Mangoes, ripe bananas, oranges</t>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">None of the above</t>
+    <t>None of the above</t>
   </si>
   <si>
     <t>pos_neg</t>
@@ -984,54 +998,62 @@
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
-    <t xml:space="preserve">Feels sick when using it</t>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
+    <t>columns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
+      <name val="Liberation Sans"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Liberation Sans"/>
-      <sz val="10.000000"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
       <name val="Liberation Sans"/>
-      <b/>
-      <sz val="10.000000"/>
     </font>
     <font>
-      <name val="Liberation Sans"/>
-      <color rgb="FF666666"/>
-      <sz val="10.000000"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
     </font>
     <font>
-      <name val="Cambria"/>
-      <sz val="11.000000"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1129,173 +1151,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="7" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1307,291 +1277,8 @@
 </personList>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1643,7 +1330,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1714,6 +1401,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1730,35 +1418,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B9" sqref="B9"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="27.129999999999999"/>
-    <col customWidth="1" min="2" max="2" style="1" width="33.140000000000001"/>
-    <col customWidth="1" min="3" max="3" style="1" width="32.149999999999999"/>
-    <col min="4" max="4" style="1" width="14.4453125"/>
-    <col customWidth="1" min="5" max="5" style="1" width="53.859999999999999"/>
-    <col customWidth="1" min="6" max="6" style="1" width="17.43"/>
-    <col customWidth="1" min="7" max="7" style="1" width="37.710000000000001"/>
-    <col customWidth="1" min="8" max="8" style="1" width="32.710000000000001"/>
-    <col customWidth="1" min="9" max="9" style="1" width="73.859999999999999"/>
-    <col customWidth="1" min="10" max="10" style="1" width="30.010000000000002"/>
-    <col min="11" max="12" style="1" width="14.4453125"/>
-    <col customWidth="1" min="13" max="14" style="1" width="29.859999999999999"/>
-    <col min="15" max="16384" style="1" width="14.4453125"/>
+    <col min="1" max="1" width="27.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1"/>
+    <col min="5" max="5" width="53.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="12" width="14.44140625" style="1"/>
+    <col min="13" max="14" width="29.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1801,10 +1489,8 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1829,10 +1515,8 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1855,10 +1539,8 @@
       <c r="L3" s="5"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1879,10 +1561,8 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1903,10 +1583,8 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1927,10 +1605,8 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1951,10 +1627,8 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1975,10 +1649,8 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -2004,7 +1676,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2023,10 +1695,8 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +1722,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -2080,7 +1750,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +1776,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -2133,26 +1803,8 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2178,7 +1830,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -2204,7 +1856,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -2230,7 +1882,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +1908,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -2282,7 +1934,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2306,7 +1958,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -2330,7 +1982,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -2354,7 +2006,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -2378,7 +2030,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
@@ -2397,12 +2049,8 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2417,10 +2065,8 @@
       <c r="L25" s="12"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>44</v>
       </c>
@@ -2443,10 +2089,8 @@
       <c r="L26" s="16"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>44</v>
       </c>
@@ -2467,10 +2111,8 @@
       <c r="L27" s="16"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
         <v>44</v>
       </c>
@@ -2491,10 +2133,8 @@
       <c r="L28" s="16"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>44</v>
       </c>
@@ -2515,10 +2155,8 @@
       <c r="L29" s="16"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
@@ -2539,10 +2177,8 @@
       <c r="L30" s="16"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>44</v>
       </c>
@@ -2563,26 +2199,8 @@
       <c r="L31" s="16"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>44</v>
       </c>
@@ -2603,10 +2221,8 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>44</v>
       </c>
@@ -2627,10 +2243,8 @@
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>44</v>
       </c>
@@ -2651,28 +2265,8 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" ht="15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" ht="15">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="17" t="s">
         <v>14</v>
       </c>
@@ -2695,10 +2289,8 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:14" ht="12.75" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>66</v>
       </c>
@@ -2721,10 +2313,8 @@
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:14" ht="12.75" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>66</v>
       </c>
@@ -2745,10 +2335,8 @@
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:14" ht="12.75" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>34</v>
       </c>
@@ -2777,10 +2365,8 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" ht="15">
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="17" t="s">
         <v>32</v>
       </c>
@@ -2799,28 +2385,8 @@
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" ht="15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>14</v>
       </c>
@@ -2845,10 +2411,8 @@
         <v>80</v>
       </c>
       <c r="N42" s="19"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="17" t="s">
         <v>14</v>
       </c>
@@ -2871,10 +2435,8 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="17" t="s">
         <v>44</v>
       </c>
@@ -2897,10 +2459,8 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>14</v>
       </c>
@@ -2925,10 +2485,8 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="17" t="s">
         <v>44</v>
       </c>
@@ -2951,10 +2509,8 @@
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="17" t="s">
         <v>14</v>
       </c>
@@ -2977,10 +2533,8 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="17" t="s">
         <v>44</v>
       </c>
@@ -3003,10 +2557,8 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>32</v>
       </c>
@@ -3025,10 +2577,8 @@
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>32</v>
       </c>
@@ -3047,10 +2597,8 @@
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>32</v>
       </c>
@@ -3069,10 +2617,8 @@
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>44</v>
       </c>
@@ -3095,10 +2641,8 @@
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="17" t="s">
         <v>34</v>
       </c>
@@ -3121,10 +2665,8 @@
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="17" t="s">
         <v>34</v>
       </c>
@@ -3151,10 +2693,8 @@
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>44</v>
       </c>
@@ -3177,10 +2717,8 @@
       <c r="L55" s="19"/>
       <c r="M55" s="19"/>
       <c r="N55" s="19"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>44</v>
       </c>
@@ -3201,10 +2739,8 @@
       <c r="L56" s="19"/>
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="17" t="s">
         <v>14</v>
       </c>
@@ -3225,10 +2761,8 @@
       <c r="L57" s="19"/>
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>99</v>
       </c>
@@ -3259,10 +2793,8 @@
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>66</v>
       </c>
@@ -3285,10 +2817,8 @@
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>109</v>
       </c>
@@ -3317,10 +2847,8 @@
       <c r="L60" s="19"/>
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>109</v>
       </c>
@@ -3347,10 +2875,8 @@
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>118</v>
       </c>
@@ -3363,7 +2889,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19" t="s">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="18"/>
@@ -3373,15 +2899,13 @@
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="19"/>
@@ -3390,22 +2914,20 @@
       <c r="G63" s="19"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
       <c r="M63" s="19"/>
       <c r="N63" s="19"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
@@ -3414,22 +2936,20 @@
       <c r="G64" s="19"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
       <c r="L64" s="19"/>
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
@@ -3438,22 +2958,20 @@
       <c r="G65" s="19"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
@@ -3462,22 +2980,20 @@
       <c r="G66" s="19"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
       <c r="M66" s="19"/>
       <c r="N66" s="19"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="19"/>
@@ -3486,25 +3002,23 @@
       <c r="G67" s="19"/>
       <c r="H67" s="18"/>
       <c r="I67" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19"/>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
@@ -3519,10 +3033,8 @@
       <c r="L68" s="19"/>
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1">
       <c r="A69" s="17" t="s">
         <v>32</v>
       </c>
@@ -3541,25 +3053,23 @@
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
       <c r="A70" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="C70" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>74</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="19" t="s">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="18"/>
@@ -3569,31 +3079,29 @@
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
       <c r="A71" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="18"/>
       <c r="I71" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="J71" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="K71" s="19"/>
       <c r="L71" s="19" t="s">
@@ -3601,15 +3109,13 @@
       </c>
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>31</v>
@@ -3618,14 +3124,14 @@
         <v>74</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19" t="s">
         <v>74</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="18"/>
@@ -3633,10 +3139,8 @@
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
       <c r="N72" s="19"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>44</v>
       </c>
@@ -3652,25 +3156,23 @@
       <c r="G73" s="19"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
       <c r="N73" s="19"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B74" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
@@ -3679,7 +3181,7 @@
         <v>74</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="18"/>
@@ -3687,28 +3189,10 @@
       <c r="L74" s="19"/>
       <c r="M74" s="19"/>
       <c r="N74" s="19"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>38</v>
@@ -3719,15 +3203,15 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G75" s="19"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K75" s="19"/>
       <c r="L75" s="19" t="s">
@@ -3735,34 +3219,16 @@
       </c>
       <c r="M75" s="19"/>
       <c r="N75" s="19"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="1"/>
-      <c r="AF75" s="1"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
@@ -3775,31 +3241,13 @@
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="1"/>
-      <c r="AF76" s="1"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>16</v>
@@ -3817,10 +3265,8 @@
       <c r="L77" s="19"/>
       <c r="M77" s="19"/>
       <c r="N77" s="19"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
       <c r="A78" s="17" t="s">
         <v>44</v>
       </c>
@@ -3834,17 +3280,15 @@
       <c r="G78" s="19"/>
       <c r="H78" s="18"/>
       <c r="I78" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J78" s="18"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>44</v>
       </c>
@@ -3858,17 +3302,15 @@
       <c r="G79" s="19"/>
       <c r="H79" s="18"/>
       <c r="I79" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J79" s="18"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
       <c r="M79" s="19"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
       <c r="A80" s="17" t="s">
         <v>44</v>
       </c>
@@ -3882,22 +3324,20 @@
       <c r="G80" s="19"/>
       <c r="H80" s="18"/>
       <c r="I80" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J80" s="18"/>
       <c r="K80" s="19"/>
       <c r="L80" s="19"/>
       <c r="M80" s="19"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1">
       <c r="A81" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="19"/>
@@ -3911,15 +3351,13 @@
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="19"/>
@@ -3928,19 +3366,17 @@
       <c r="G82" s="19"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
       <c r="L82" s="19"/>
       <c r="M82" s="19"/>
       <c r="N82" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="17" t="s">
         <v>32</v>
       </c>
@@ -3959,15 +3395,13 @@
       <c r="L83" s="19"/>
       <c r="M83" s="19"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1">
       <c r="A84" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="19"/>
@@ -3976,24 +3410,22 @@
       <c r="G84" s="19"/>
       <c r="H84" s="18"/>
       <c r="I84" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
       <c r="N84" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="19"/>
@@ -4002,22 +3434,20 @@
       <c r="G85" s="19"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
       <c r="N85" s="18"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1">
       <c r="A86" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="19"/>
@@ -4026,40 +3456,28 @@
       <c r="G86" s="19"/>
       <c r="H86" s="18"/>
       <c r="I86" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J86" s="18"/>
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
       <c r="N86" s="18"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>16</v>
@@ -4077,10 +3495,8 @@
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1">
       <c r="A89" s="17" t="s">
         <v>66</v>
       </c>
@@ -4103,10 +3519,8 @@
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1">
       <c r="A90" s="17" t="s">
         <v>66</v>
       </c>
@@ -4114,7 +3528,7 @@
         <v>70</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -4127,15 +3541,13 @@
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1">
       <c r="A91" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="19"/>
@@ -4149,345 +3561,95 @@
       <c r="L91" s="19"/>
       <c r="M91" s="19"/>
       <c r="N91" s="19"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="D87:D88 D35:D36 D81:D84 D2:D26 G73 G70 D69 D59 D57 D41:D54" xr:uid="{00D000D8-00EC-4519-8A0B-00ED009E00EE}">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A41:A53 A87:A88 A35:A36 A81:A84 A1:A26" xr:uid="{00310038-00DE-4D8D-B88E-00550045006D}">
+      <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="21" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00D000D8-00EC-4519-8A0B-00ED009E00EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D2:D8 D10 D24:D25 D35 D41:D53 D81:D82 D83 D87</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00310038-00DE-4D8D-B88E-00550045006D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A1:A2 A6:A8 A10 A24:A25 A35 A41:A53 A81:A82 A83 A87</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002100FC-0098-42EF-8BE3-00BB00900082}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D54</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005300E7-0007-4564-989B-00140049002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D57</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002D008E-0035-49C0-87CA-005D00D400A5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D59</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00440039-0002-47C1-9242-00CA00E3007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D69</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B700A3-00A6-418C-AFDC-00A900F40092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>G70</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006400A7-0032-48BF-932B-004B00B700EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>G73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B500F5-00B1-413A-B87D-002300040007}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0054009A-00F6-4BC2-B6F1-00BD00BF0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D9002E-0079-46EA-B3A2-00D6004400EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D11:D12 D13:D23 D9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B20054-00D4-47AB-8393-002D00790030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A11:A12 A13:A23 A9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BD00C8-006F-4128-A4C6-007A007700D9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00650045-00AE-4E7B-B13B-00140085002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D84</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C400B6-000A-4494-B798-00DC001B00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A84</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009100E1-0008-46B8-956E-00B400E30083}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F90065-006C-4DCA-87E1-00A4005B007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001A00D1-002E-4927-ADAA-00E9007900F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003C00A2-00AC-4EB8-AFC7-00F600AE0049}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DD00D9-004C-4A5E-9C03-006B00560090}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D88</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DA006B-00E9-48E9-9A4D-0084007D00A8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>A88</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="28.300000000000001"/>
-    <col customWidth="1" min="2" max="2" style="1" width="25.8515625"/>
-    <col customWidth="1" min="3" max="15" style="1" width="45.859999999999999"/>
-    <col min="16" max="16384" style="1" width="14.4453125"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="1" customWidth="1"/>
+    <col min="3" max="15" width="45.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -4511,15 +3673,15 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -4536,9 +3698,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4557,17 +3718,16 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -4584,17 +3744,16 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -4612,15 +3771,15 @@
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -4638,15 +3797,15 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -4664,15 +3823,15 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -4690,15 +3849,15 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -4716,7 +3875,7 @@
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4736,15 +3895,15 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="C11" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -4762,15 +3921,15 @@
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -4788,7 +3947,7 @@
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -4808,7 +3967,7 @@
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4827,9 +3986,8 @@
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -4848,9 +4006,8 @@
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4870,7 +4027,7 @@
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -4890,7 +4047,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4910,7 +4067,7 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -4930,7 +4087,7 @@
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="11"/>
@@ -4950,7 +4107,7 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="11"/>
@@ -4970,7 +4127,7 @@
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="11"/>
@@ -4990,7 +4147,7 @@
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="11"/>
@@ -5009,9 +4166,8 @@
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="11"/>
@@ -5030,9 +4186,8 @@
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="11"/>
@@ -5051,9 +4206,8 @@
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="11"/>
@@ -5072,9 +4226,8 @@
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="11"/>
@@ -5093,9 +4246,8 @@
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="11"/>
@@ -5114,9 +4266,8 @@
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="11"/>
@@ -5135,9 +4286,8 @@
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="11"/>
@@ -5156,9 +4306,8 @@
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="11"/>
@@ -5177,9 +4326,8 @@
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="11"/>
@@ -5198,9 +4346,8 @@
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="11"/>
@@ -5219,9 +4366,8 @@
       <c r="P33" s="23"/>
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="11"/>
@@ -5240,9 +4386,8 @@
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="11"/>
@@ -5261,9 +4406,8 @@
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="11"/>
@@ -5282,9 +4426,8 @@
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="11"/>
@@ -5303,9 +4446,8 @@
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="11"/>
@@ -5324,9 +4466,8 @@
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="11"/>
@@ -5345,9 +4486,8 @@
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23"/>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="11"/>
@@ -5366,9 +4506,8 @@
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="1"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="11"/>
@@ -5387,9 +4526,8 @@
       <c r="P41" s="23"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="11"/>
@@ -5408,9 +4546,8 @@
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1">
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="11"/>
@@ -5429,9 +4566,8 @@
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="11"/>
@@ -5450,9 +4586,8 @@
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1">
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="11"/>
@@ -5471,9 +4606,8 @@
       <c r="P45" s="23"/>
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="11"/>
@@ -5492,9 +4626,8 @@
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="11"/>
@@ -5513,9 +4646,8 @@
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
       <c r="R47" s="23"/>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="11"/>
@@ -5534,9 +4666,8 @@
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
       <c r="R48" s="23"/>
-      <c r="S48" s="1"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="11"/>
@@ -5555,9 +4686,8 @@
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="23"/>
-      <c r="S49" s="1"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="11"/>
@@ -5576,9 +4706,8 @@
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
       <c r="R50" s="23"/>
-      <c r="S50" s="1"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="11"/>
@@ -5597,9 +4726,8 @@
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
       <c r="R51" s="23"/>
-      <c r="S51" s="1"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
       <c r="C52" s="11"/>
@@ -5618,9 +4746,8 @@
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
-      <c r="S52" s="1"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1">
       <c r="A53" s="23"/>
       <c r="B53" s="23"/>
       <c r="C53" s="11"/>
@@ -5639,9 +4766,8 @@
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
       <c r="R53" s="23"/>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1">
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="11"/>
@@ -5660,9 +4786,8 @@
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
       <c r="R54" s="23"/>
-      <c r="S54" s="1"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="11"/>
@@ -5681,9 +4806,8 @@
       <c r="P55" s="23"/>
       <c r="Q55" s="23"/>
       <c r="R55" s="23"/>
-      <c r="S55" s="1"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="11"/>
@@ -5703,7 +4827,7 @@
       <c r="Q56" s="23"/>
       <c r="R56" s="23"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:18" ht="15.75" customHeight="1">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="11"/>
@@ -5723,7 +4847,7 @@
       <c r="Q57" s="23"/>
       <c r="R57" s="23"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:18" ht="15.75" customHeight="1">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="11"/>
@@ -5742,9 +4866,8 @@
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
-      <c r="S58" s="1"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:18" ht="15.75" customHeight="1">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="11"/>
@@ -5763,9 +4886,8 @@
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
-      <c r="S59" s="1"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="11"/>
@@ -5784,9 +4906,8 @@
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
       <c r="R60" s="23"/>
-      <c r="S60" s="1"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="11"/>
@@ -5805,9 +4926,8 @@
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
       <c r="R61" s="23"/>
-      <c r="S61" s="1"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:18" ht="15.75" customHeight="1">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="11"/>
@@ -5826,9 +4946,8 @@
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
-      <c r="S62" s="1"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:18" ht="15.75" customHeight="1">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="11"/>
@@ -5847,9 +4966,8 @@
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
       <c r="R63" s="23"/>
-      <c r="S63" s="1"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:18" ht="15.75" customHeight="1">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="11"/>
@@ -5868,9 +4986,8 @@
       <c r="P64" s="23"/>
       <c r="Q64" s="23"/>
       <c r="R64" s="23"/>
-      <c r="S64" s="1"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:18" ht="15.75" customHeight="1">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="11"/>
@@ -5889,9 +5006,8 @@
       <c r="P65" s="23"/>
       <c r="Q65" s="23"/>
       <c r="R65" s="23"/>
-      <c r="S65" s="1"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:18" ht="15.75" customHeight="1">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="11"/>
@@ -5910,9 +5026,8 @@
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
       <c r="R66" s="23"/>
-      <c r="S66" s="1"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:18" ht="15.75" customHeight="1">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="11"/>
@@ -5931,9 +5046,8 @@
       <c r="P67" s="23"/>
       <c r="Q67" s="23"/>
       <c r="R67" s="23"/>
-      <c r="S67" s="1"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:18" ht="15.75" customHeight="1">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="11"/>
@@ -5952,9 +5066,8 @@
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
-      <c r="S68" s="1"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:18" ht="15.75" customHeight="1">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="11"/>
@@ -5973,9 +5086,8 @@
       <c r="P69" s="23"/>
       <c r="Q69" s="23"/>
       <c r="R69" s="23"/>
-      <c r="S69" s="1"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:18" ht="15.75" customHeight="1">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="11"/>
@@ -5994,9 +5106,8 @@
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
       <c r="R70" s="23"/>
-      <c r="S70" s="1"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:18" ht="15.75" customHeight="1">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="11"/>
@@ -6015,9 +5126,8 @@
       <c r="P71" s="23"/>
       <c r="Q71" s="23"/>
       <c r="R71" s="23"/>
-      <c r="S71" s="1"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:18" ht="15.75" customHeight="1">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="11"/>
@@ -6036,9 +5146,8 @@
       <c r="P72" s="23"/>
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
-      <c r="S72" s="1"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:18" ht="15.75" customHeight="1">
       <c r="A73" s="23"/>
       <c r="B73" s="23"/>
       <c r="C73" s="11"/>
@@ -6057,594 +5166,51 @@
       <c r="P73" s="23"/>
       <c r="Q73" s="23"/>
       <c r="R73" s="23"/>
-      <c r="S73" s="1"/>
-    </row>
-    <row r="74" ht="12.75">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-    </row>
-    <row r="75" ht="12.75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-    </row>
-    <row r="76" ht="12.75">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-    </row>
-    <row r="77" ht="12.75">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-    </row>
-    <row r="78" ht="12.75">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-    </row>
-    <row r="79" ht="12.75">
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-    </row>
-    <row r="80" ht="12.75">
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-    </row>
-    <row r="81" ht="12.75">
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-    </row>
-    <row r="82" ht="12.75">
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-    </row>
-    <row r="83" ht="12.75">
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-    </row>
-    <row r="84" ht="12.75">
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" ht="12.75">
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" ht="12.75">
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-    </row>
-    <row r="87" ht="12.75">
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-    </row>
-    <row r="88" ht="12.75">
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" ht="12.75">
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-    </row>
-    <row r="90" ht="12.75">
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" ht="12.75">
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-    </row>
-    <row r="92" ht="12.75">
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-    </row>
-    <row r="93" ht="12.75">
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" ht="12.75">
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" ht="12.75">
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" ht="12.75">
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-    </row>
-    <row r="97" ht="12.75">
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" ht="12.75">
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" ht="12.75">
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-    </row>
-    <row r="100" ht="12.75">
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-    </row>
-    <row r="101" ht="12.75">
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" ht="12.75">
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" ht="12.75">
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" ht="12.75">
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" ht="12.75">
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" ht="12.75">
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" ht="12.75">
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" ht="12.75">
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" ht="12.75">
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" ht="12.75">
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" ht="12.75">
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" ht="12.75">
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" ht="12.75">
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" ht="12.75">
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" ht="12.75">
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" ht="12.75">
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" ht="12.75">
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" ht="12.75">
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" ht="12.75">
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-    </row>
-    <row r="120" ht="12.75">
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" ht="12.75">
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" ht="12.75">
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-    </row>
-    <row r="123" ht="12.75">
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" ht="12.75">
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" ht="12.75">
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" ht="12.75">
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-    </row>
-    <row r="127" ht="12.75">
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-    </row>
-    <row r="128" ht="12.75">
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-    </row>
-    <row r="129" ht="12.75">
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-    </row>
-    <row r="130" ht="12.75">
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-    </row>
-    <row r="131" ht="12.75">
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-    </row>
-    <row r="132" ht="12.75">
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="20.989999999999998"/>
-    <col customWidth="1" min="2" max="2" style="1" width="28.57"/>
-    <col customWidth="1" min="3" max="3" style="1" width="24.57"/>
-    <col min="4" max="16384" style="1" width="14.4453125"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6666,56 +5232,51 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-11-23 12-06</v>
+        <v>2025-05-01 23-06</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>201</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="28.300000000000001"/>
-    <col customWidth="1" min="2" max="23" style="0" width="45.859999999999999"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -6724,22 +5285,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>207</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -6756,15 +5317,15 @@
       <c r="V1" s="33"/>
       <c r="W1" s="33"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>209</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>210</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
@@ -6787,15 +5348,15 @@
       <c r="V2" s="34"/>
       <c r="W2" s="34"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>212</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
@@ -6818,7 +5379,7 @@
       <c r="V3" s="34"/>
       <c r="W3" s="34"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6843,15 +5404,15 @@
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>214</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>215</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6874,15 +5435,15 @@
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>216</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>217</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6905,15 +5466,15 @@
       <c r="V6" s="34"/>
       <c r="W6" s="34"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6936,15 +5497,15 @@
       <c r="V7" s="34"/>
       <c r="W7" s="34"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>220</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>221</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6967,15 +5528,15 @@
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>222</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>223</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -6998,7 +5559,7 @@
       <c r="V9" s="34"/>
       <c r="W9" s="34"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -7023,15 +5584,15 @@
       <c r="V10" s="34"/>
       <c r="W10" s="34"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>225</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>226</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -7054,15 +5615,15 @@
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>227</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>228</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -7085,15 +5646,15 @@
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>229</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>230</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -7116,15 +5677,15 @@
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>231</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>232</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -7147,15 +5708,15 @@
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>233</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>234</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -7178,15 +5739,15 @@
       <c r="V15" s="34"/>
       <c r="W15" s="34"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>235</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>236</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -7209,7 +5770,7 @@
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -7234,15 +5795,15 @@
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>225</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>226</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -7265,15 +5826,15 @@
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>227</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>228</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -7296,15 +5857,15 @@
       <c r="V19" s="34"/>
       <c r="W19" s="34"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>229</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>230</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -7327,15 +5888,15 @@
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>231</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>232</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -7358,15 +5919,15 @@
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>235</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>236</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -7389,15 +5950,15 @@
       <c r="V22" s="34"/>
       <c r="W22" s="34"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="C23" s="34" t="s">
         <v>238</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>239</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -7420,7 +5981,7 @@
       <c r="V23" s="34"/>
       <c r="W23" s="34"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -7445,15 +6006,15 @@
       <c r="V24" s="34"/>
       <c r="W24" s="34"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="C25" s="34" t="s">
         <v>241</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -7476,15 +6037,15 @@
       <c r="V25" s="34"/>
       <c r="W25" s="34"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>243</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>244</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -7507,15 +6068,15 @@
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>245</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>246</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7538,15 +6099,15 @@
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>247</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>248</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -7569,15 +6130,15 @@
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>183</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>184</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -7600,7 +6161,7 @@
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -7625,15 +6186,15 @@
       <c r="V30" s="34"/>
       <c r="W30" s="34"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>250</v>
-      </c>
       <c r="C31" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -7656,15 +6217,15 @@
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -7687,7 +6248,7 @@
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -7712,170 +6273,170 @@
       <c r="V33" s="34"/>
       <c r="W33" s="34"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
         <v>183</v>
       </c>
-      <c r="C43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="C48" s="35" t="s">
         <v>266</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>267</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -7898,15 +6459,15 @@
       <c r="V48" s="33"/>
       <c r="W48" s="33"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>269</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -7929,237 +6490,237 @@
       <c r="V49" s="33"/>
       <c r="W49" s="33"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" t="s">
         <v>270</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>271</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" t="s">
-        <v>270</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>273</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" t="s">
-        <v>270</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>275</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" t="s">
-        <v>270</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>277</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" t="s">
-        <v>270</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>279</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A58" s="35" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" t="s">
-        <v>270</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B58" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A59" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A60" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A61" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="C56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="C60" s="35" t="s">
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A63" s="33" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B61" s="35" t="s">
+      <c r="B63" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A64" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>304</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" t="s">
-        <v>299</v>
-      </c>
-      <c r="B69" t="s">
-        <v>300</v>
-      </c>
-      <c r="C69" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" t="s">
-        <v>299</v>
-      </c>
-      <c r="B70" t="s">
-        <v>302</v>
-      </c>
-      <c r="C70" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" t="s">
-        <v>304</v>
-      </c>
-      <c r="B72" t="s">
-        <v>305</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" t="s">
-        <v>304</v>
-      </c>
-      <c r="B73" t="s">
-        <v>306</v>
-      </c>
-      <c r="C73" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" t="s">
-        <v>304</v>
-      </c>
-      <c r="B74" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -9081,9 +7642,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>